--- a/r_list_8.xlsx
+++ b/r_list_8.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1254,6 +1254,14 @@
         <v>700577</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B102" t="n">
+        <v>700577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1265,7 +1273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2085,6 +2093,14 @@
         <v>2054490</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2064421</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2096,7 +2112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2916,6 +2932,14 @@
         <v>348091</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B102" t="n">
+        <v>333245</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2927,7 +2951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3747,6 +3771,14 @@
         <v>163820</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B102" t="n">
+        <v>149531</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3758,7 +3790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4298,6 +4330,14 @@
         <v>24885</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B67" t="n">
+        <v>26000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4309,7 +4349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5129,6 +5169,14 @@
         <v>52269</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B102" t="n">
+        <v>50054</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_8.xlsx
+++ b/r_list_8.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1262,6 +1262,22 @@
         <v>700577</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B103" t="n">
+        <v>662265</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B104" t="n">
+        <v>612245</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1273,7 +1289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2101,6 +2117,22 @@
         <v>2064421</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2019249</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2064804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2112,7 +2144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2940,6 +2972,22 @@
         <v>333245</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B103" t="n">
+        <v>337342</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B104" t="n">
+        <v>349928</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2951,7 +2999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3779,6 +3827,22 @@
         <v>149531</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B103" t="n">
+        <v>151232</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B104" t="n">
+        <v>145925</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3790,7 +3854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4338,6 +4402,22 @@
         <v>26000</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B68" t="n">
+        <v>24874</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B69" t="n">
+        <v>35487</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4349,7 +4429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5177,6 +5257,22 @@
         <v>50054</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B103" t="n">
+        <v>48808</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B104" t="n">
+        <v>48608</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_8.xlsx
+++ b/r_list_8.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,6 +1278,14 @@
         <v>612245</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B105" t="n">
+        <v>690972</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1289,7 +1297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,6 +2141,14 @@
         <v>2064804</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2260736</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2144,7 +2160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2988,6 +3004,14 @@
         <v>349928</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B105" t="n">
+        <v>380805</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2999,7 +3023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3843,6 +3867,14 @@
         <v>145925</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B105" t="n">
+        <v>160654</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3854,7 +3886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4418,6 +4450,14 @@
         <v>35487</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B70" t="n">
+        <v>33035</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4429,7 +4469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5273,6 +5313,14 @@
         <v>48608</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B105" t="n">
+        <v>53328</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_8.xlsx
+++ b/r_list_8.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1286,6 +1286,22 @@
         <v>690972</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B106" t="n">
+        <v>687098</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1297,7 +1313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2149,6 +2165,22 @@
         <v>2260736</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2236477</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2160,7 +2192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3012,6 +3044,22 @@
         <v>380805</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B106" t="n">
+        <v>380707</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3023,7 +3071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3875,6 +3923,22 @@
         <v>160654</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B106" t="n">
+        <v>155965</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3886,7 +3950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4458,6 +4522,22 @@
         <v>33035</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B71" t="n">
+        <v>30908</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4469,7 +4549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5321,6 +5401,22 @@
         <v>53328</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B106" t="n">
+        <v>53353</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_8.xlsx
+++ b/r_list_8.xlsx
@@ -1299,7 +1299,7 @@
         <v>45989</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>667975</v>
       </c>
     </row>
   </sheetData>
@@ -2178,7 +2178,7 @@
         <v>45989</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>2097482</v>
       </c>
     </row>
   </sheetData>
@@ -3057,7 +3057,7 @@
         <v>45989</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>351608</v>
       </c>
     </row>
   </sheetData>
@@ -3936,7 +3936,7 @@
         <v>45989</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>159926</v>
       </c>
     </row>
   </sheetData>
@@ -4535,7 +4535,7 @@
         <v>45989</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>35349</v>
       </c>
     </row>
   </sheetData>
@@ -5414,7 +5414,7 @@
         <v>45989</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>53894</v>
       </c>
     </row>
   </sheetData>
